--- a/git-tet-2.xlsx
+++ b/git-tet-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/t.miyazawa/my_dev/git_training/binary-file-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3979F3DE-4C7C-C04D-831B-3D78E4ABDFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042EBE1E-C073-6542-A801-F6FE029FA846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1560" windowWidth="28300" windowHeight="17440" xr2:uid="{642721CA-6EEA-8248-851B-3342FC1FDECF}"/>
   </bookViews>
@@ -31,13 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>git</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>gittest2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add message at A3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF358D97-DCD1-C545-8742-EB77275CC491}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -420,6 +424,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
